--- a/topic_3_img/example.xlsx
+++ b/topic_3_img/example.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26930"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_C27D4BC563FECD267B3C724A8DC49D374995E245" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{992D1A1D-741D-46BB-893F-6EE80C0D96DC}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="receivable" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="reevaluation" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="receivable" sheetId="1" r:id="rId1"/>
+    <sheet name="reevaluation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -23,159 +34,135 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
-    <t xml:space="preserve">ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIABILITY AND EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current liability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noncurrent liability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other current assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total current assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total noncurrent assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total liability and equity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key ratios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Current ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Debt to equity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASSET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income Statement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPE:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revaluation surplus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- LAND ($3M)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIABILITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+0.7</t>
+    <t>ASSETS</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>LIABILITY AND EQUITY</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>current liability</t>
+  </si>
+  <si>
+    <t>receivables</t>
+  </si>
+  <si>
+    <t>noncurrent liability</t>
+  </si>
+  <si>
+    <t>other current assets</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t>Total noncurrent assets</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>Total liability and equity</t>
+  </si>
+  <si>
+    <t>Key ratios</t>
+  </si>
+  <si>
+    <t>Current ratio</t>
+  </si>
+  <si>
+    <t>Total Debt to equity</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>ASSET</t>
+  </si>
+  <si>
+    <t>EQUITY</t>
+  </si>
+  <si>
+    <t>Income Statement</t>
+  </si>
+  <si>
+    <t>PPE:</t>
+  </si>
+  <si>
+    <t>Revaluation surplus</t>
+  </si>
+  <si>
+    <t>+ 0.5</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>- LAND ($3M)</t>
+  </si>
+  <si>
+    <t>-0.7</t>
+  </si>
+  <si>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>LIABILITY</t>
+  </si>
+  <si>
+    <t>OCI</t>
+  </si>
+  <si>
+    <t>-0.5</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>+0.3</t>
+  </si>
+  <si>
+    <t>-0.4</t>
+  </si>
+  <si>
+    <t>+0.4</t>
+  </si>
+  <si>
+    <t>+0.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -190,210 +177,180 @@
     </fill>
   </fills>
   <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -407,9 +364,15 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="Text Frame 1"/>
+        <xdr:cNvPr id="2" name="Text Frame 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -426,64 +389,41 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
+        <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
+        <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Syntex </a:t>
+            <a:t>Syntex 	Co. securitizes its entire receivables of $400 million with no recourse by selling the portfolio to a trust that finances the purchase by selling bonds. Evaluate three scenarios</a:t>
           </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>Co. securitizes its entire receivables of $400 million with no recourse by selling the portfolio to a trust that finances the purchase by selling bonds. Evaluate three scenarios</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>1) before securitization</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>2) after securitization with off-balance financing (as reported under US GAAP)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-US" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>3) after securitization but reflecting the securitization as a borrowing (analyst’s adjustment)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -492,27 +432,319 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B12:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="11.53"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="5" width="11.5703125" style="1"/>
+    <col min="6" max="6" width="21.28515625" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:9">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -521,7 +753,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:9">
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
@@ -547,161 +779,161 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="2:9">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>50</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <f aca="false">+C15+C14</f>
+      <c r="D14" s="1">
+        <f>+C15+C14</f>
         <v>450</v>
       </c>
-      <c r="E14" s="1" t="n">
-        <f aca="false">+C14+C15</f>
+      <c r="E14" s="1">
+        <f>+C14+C15</f>
         <v>450</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="1" t="n">
+      <c r="G14" s="1">
         <v>400</v>
       </c>
-      <c r="H14" s="1" t="n">
-        <f aca="false">+G14</f>
+      <c r="H14" s="1">
+        <f>+G14</f>
         <v>400</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <f aca="false">+H14+E15</f>
+      <c r="I14" s="1">
+        <f>+H14+E15</f>
         <v>800</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="2:9">
+      <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>400</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1" t="n">
-        <f aca="false">+C15</f>
+      <c r="E15" s="1">
+        <f>+C15</f>
         <v>400</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="1">
         <v>500</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <f aca="false">+G15</f>
+      <c r="H15" s="1">
+        <f>+G15</f>
         <v>500</v>
       </c>
-      <c r="I15" s="1" t="n">
-        <f aca="false">+H15</f>
+      <c r="I15" s="1">
+        <f>+H15</f>
         <v>500</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C16" s="1">
         <v>150</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <f aca="false">+C16</f>
+      <c r="D16" s="1">
+        <f>+C16</f>
         <v>150</v>
       </c>
-      <c r="E16" s="1" t="n">
-        <f aca="false">+C16</f>
+      <c r="E16" s="1">
+        <f>+C16</f>
         <v>150</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="2:9">
+      <c r="B17" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <f aca="false">SUM(C14:C16)</f>
+      <c r="C17" s="1">
+        <f>SUM(C14:C16)</f>
         <v>600</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <f aca="false">SUM(D14:D16)</f>
+      <c r="D17" s="1">
+        <f>SUM(D14:D16)</f>
         <v>600</v>
       </c>
-      <c r="E17" s="1" t="n">
-        <f aca="false">SUM(E14:E16)</f>
+      <c r="E17" s="1">
+        <f>SUM(E14:E16)</f>
         <v>1000</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="1">
         <v>600</v>
       </c>
-      <c r="H17" s="1" t="n">
-        <f aca="false">+G17</f>
+      <c r="H17" s="1">
+        <f>+G17</f>
         <v>600</v>
       </c>
-      <c r="I17" s="1" t="n">
-        <f aca="false">+H17</f>
+      <c r="I17" s="1">
+        <f>+H17</f>
         <v>600</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+    <row r="19" spans="2:9">
+      <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>900</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <f aca="false">+C19</f>
+      <c r="D19" s="1">
+        <f>+C19</f>
         <v>900</v>
       </c>
-      <c r="E19" s="1" t="n">
-        <f aca="false">+C19</f>
+      <c r="E19" s="1">
+        <f>+C19</f>
         <v>900</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:9">
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <f aca="false">C19+C17</f>
+      <c r="C20" s="2">
+        <f>C19+C17</f>
         <v>1500</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <f aca="false">D19+D17</f>
+      <c r="D20" s="2">
+        <f>D19+D17</f>
         <v>1500</v>
       </c>
-      <c r="E20" s="2" t="n">
-        <f aca="false">E19+E17</f>
+      <c r="E20" s="2">
+        <f>E19+E17</f>
         <v>1900</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="2" t="n">
-        <f aca="false">G17+G15+G14</f>
+      <c r="G20" s="2">
+        <f>G17+G15+G14</f>
         <v>1500</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <f aca="false">H17+H15+H14</f>
+      <c r="H20" s="2">
+        <f>H17+H15+H14</f>
         <v>1500</v>
       </c>
-      <c r="I20" s="2" t="n">
-        <f aca="false">I17+I15+I14</f>
+      <c r="I20" s="2">
+        <f>I17+I15+I14</f>
         <v>1900</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:9">
       <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
@@ -715,45 +947,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="1" t="n">
-        <f aca="false">+C17/G14</f>
+      <c r="C23" s="1">
+        <f>+C17/G14</f>
         <v>1.5</v>
       </c>
-      <c r="D23" s="1" t="n">
-        <f aca="false">+D17/H14</f>
+      <c r="D23" s="1">
+        <f>+D17/H14</f>
         <v>1.5</v>
       </c>
-      <c r="E23" s="6" t="n">
-        <f aca="false">+E17/I14</f>
+      <c r="E23" s="6">
+        <f>+E17/I14</f>
         <v>1.25</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="2:9">
+      <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <f aca="false">+(G14+G15)/G17</f>
+      <c r="C24" s="1">
+        <f>+(G14+G15)/G17</f>
         <v>1.5</v>
       </c>
-      <c r="D24" s="1" t="n">
-        <f aca="false">+(H14+H15)/H17</f>
+      <c r="D24" s="1">
+        <f>+(H14+H15)/H17</f>
         <v>1.5</v>
       </c>
-      <c r="E24" s="6" t="n">
-        <f aca="false">+(I14+I15)/I17</f>
-        <v>2.16666666666667</v>
+      <c r="E24" s="6">
+        <f>+(I14+I15)/I17</f>
+        <v>2.1666666666666665</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -762,60 +993,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N12" activeCellId="0" sqref="N12"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="2.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="2.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="15.13"/>
+    <col min="5" max="5" width="2.5703125" customWidth="1"/>
+    <col min="9" max="9" width="2.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" ht="24.2">
       <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="8">
         <v>2020</v>
       </c>
-      <c r="D3" s="9" t="n">
+      <c r="D3" s="9">
         <v>2021</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="8">
         <v>2020</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="9">
         <v>2021</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="8">
         <v>2020</v>
       </c>
-      <c r="L3" s="9" t="n">
+      <c r="L3" s="9">
         <v>2021</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" ht="24.2">
       <c r="B4" s="13" t="s">
         <v>22</v>
       </c>
@@ -828,7 +1056,7 @@
       <c r="G4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="14" t="n">
+      <c r="H4" s="14">
         <v>-0.5</v>
       </c>
       <c r="I4" s="11"/>
@@ -838,7 +1066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" ht="24.2">
       <c r="B5" s="17" t="s">
         <v>26</v>
       </c>
@@ -861,7 +1089,7 @@
       <c r="K5" s="19"/>
       <c r="L5" s="20"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12">
       <c r="B6" s="16"/>
       <c r="C6" s="11"/>
       <c r="D6" s="14"/>
@@ -874,7 +1102,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12">
       <c r="B7" s="21"/>
       <c r="C7" s="19"/>
       <c r="D7" s="20"/>
@@ -882,24 +1110,24 @@
       <c r="F7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="8">
         <v>2020</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="9">
         <v>2021</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="8">
         <v>2020</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="9">
         <v>2021</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -916,7 +1144,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12">
       <c r="F9" s="22"/>
       <c r="G9" s="23"/>
       <c r="H9" s="24"/>
@@ -924,43 +1152,43 @@
       <c r="K9" s="23"/>
       <c r="L9" s="24"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" ht="24.2">
       <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="8">
         <v>2020</v>
       </c>
-      <c r="D12" s="9" t="n">
+      <c r="D12" s="9">
         <v>2021</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="8">
         <v>2020</v>
       </c>
-      <c r="H12" s="9" t="n">
+      <c r="H12" s="9">
         <v>2021</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="8">
         <v>2020</v>
       </c>
-      <c r="L12" s="9" t="n">
+      <c r="L12" s="9">
         <v>2021</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:12" ht="23.85">
       <c r="B13" s="13" t="s">
         <v>22</v>
       </c>
@@ -983,7 +1211,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:12" ht="23.85">
       <c r="B14" s="17" t="s">
         <v>26</v>
       </c>
@@ -1008,7 +1236,7 @@
       <c r="K14" s="19"/>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:12">
       <c r="B15" s="16"/>
       <c r="C15" s="11"/>
       <c r="D15" s="14"/>
@@ -1021,7 +1249,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:12">
       <c r="B16" s="21"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
@@ -1029,24 +1257,24 @@
       <c r="F16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="8">
         <v>2020</v>
       </c>
-      <c r="H16" s="9" t="n">
+      <c r="H16" s="9">
         <v>2021</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="8">
         <v>2020</v>
       </c>
-      <c r="L16" s="9" t="n">
+      <c r="L16" s="9">
         <v>2021</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:12">
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1061,7 +1289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:12">
       <c r="F18" s="22"/>
       <c r="G18" s="23"/>
       <c r="H18" s="24"/>
@@ -1070,10 +1298,9 @@
       <c r="L18" s="24"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
